--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value894.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value894.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.500751926715999</v>
+        <v>2.497188568115234</v>
       </c>
       <c r="B1">
-        <v>2.271422921883676</v>
+        <v>2.929057121276855</v>
       </c>
       <c r="C1">
-        <v>2.62016595199468</v>
+        <v>1.783117651939392</v>
       </c>
       <c r="D1">
-        <v>3.021882734803441</v>
+        <v>1.459703326225281</v>
       </c>
       <c r="E1">
-        <v>2.400427658912227</v>
+        <v>1.369690656661987</v>
       </c>
     </row>
   </sheetData>
